--- a/Jerusalem Rainfall.xlsx
+++ b/Jerusalem Rainfall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\excels\Excel-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7406C2-3C2C-45F3-A24A-2CFADD947968}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ECB2D7-028F-4D7C-9256-8166ED2E54CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{6D794E1D-836D-4C54-93D0-09E58E518732}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="quarterly rain" sheetId="3" r:id="rId3"/>
     <sheet name="monthly rain" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">dashboard!$A$1:$N$32</definedName>
   </definedNames>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <r>
       <t>Rainfall data for Jerusalem, Isarel (years 1990-2017)</t>
@@ -167,64 +164,10 @@
     <t>days without rain</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>average:</t>
   </si>
   <si>
     <t>month</t>
-  </si>
-  <si>
-    <t>Amount of rainfall in 27 years (mm)</t>
-  </si>
-  <si>
-    <t>Number of days of rain in 27 years (mm)</t>
   </si>
   <si>
     <t>Dec</t>
@@ -261,6 +204,12 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>Amount of rainfall in 29 years (mm)</t>
+  </si>
+  <si>
+    <t>Number of days of rain in 29 years (mm)</t>
   </si>
 </sst>
 </file>
@@ -451,15 +400,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,9 +853,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'annual rain'!$A$2:$A$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1990</c:v>
@@ -992,8 +942,8 @@
                 <c:pt idx="27">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2340,40 +2290,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100.83672839506174</c:v>
+                  <c:v>93.882471264367837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127.31228395061736</c:v>
+                  <c:v>118.53212643678168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.59530864197529</c:v>
+                  <c:v>105.76114942528734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.522283950617251</c:v>
+                  <c:v>58.210402298850546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.663888888888881</c:v>
+                  <c:v>17.376724137931028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8783950617283942</c:v>
+                  <c:v>5.4729885057471259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53481481481481496</c:v>
+                  <c:v>0.49793103448275872</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>3.4482758620689655E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69500000000000006</c:v>
+                  <c:v>0.64706896551724136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5475308641975332</c:v>
+                  <c:v>7.9580459770114969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.216666666666647</c:v>
+                  <c:v>46.753448275862048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,40 +2427,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.62962962962963</c:v>
+                  <c:v>9.8965517241379306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.074074074074074</c:v>
+                  <c:v>12.172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>11.172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3703703703703702</c:v>
+                  <c:v>8.7241379310344822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5925925925925926</c:v>
+                  <c:v>4.2758620689655169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.962962962962963</c:v>
+                  <c:v>1.8275862068965518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.407407407407407E-2</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70370370370370372</c:v>
+                  <c:v>0.65517241379310343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4074074074074074</c:v>
+                  <c:v>4.1034482758620694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3703703703703702</c:v>
+                  <c:v>6.8620689655172411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,9 +2937,10 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'annual rain'!$A$2:$A$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1990</c:v>
@@ -3075,8 +3026,8 @@
                 <c:pt idx="27">
                   <c:v>2017</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4784,40 +4735,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100.83672839506174</c:v>
+                  <c:v>93.882471264367837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127.31228395061736</c:v>
+                  <c:v>118.53212643678168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.59530864197529</c:v>
+                  <c:v>105.76114942528734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.522283950617251</c:v>
+                  <c:v>58.210402298850546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.663888888888881</c:v>
+                  <c:v>17.376724137931028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8783950617283942</c:v>
+                  <c:v>5.4729885057471259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53481481481481496</c:v>
+                  <c:v>0.49793103448275872</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7037037037037035E-2</c:v>
+                  <c:v>3.4482758620689655E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69500000000000006</c:v>
+                  <c:v>0.64706896551724136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5475308641975332</c:v>
+                  <c:v>7.9580459770114969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.216666666666647</c:v>
+                  <c:v>46.753448275862048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,40 +4872,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.62962962962963</c:v>
+                  <c:v>9.8965517241379306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.074074074074074</c:v>
+                  <c:v>12.172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>11.172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3703703703703702</c:v>
+                  <c:v>8.7241379310344822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5925925925925926</c:v>
+                  <c:v>4.2758620689655169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.962962962962963</c:v>
+                  <c:v>1.8275862068965518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.407407407407407E-2</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70370370370370372</c:v>
+                  <c:v>0.65517241379310343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4074074074074074</c:v>
+                  <c:v>4.1034482758620694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3703703703703702</c:v>
+                  <c:v>6.8620689655172411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9996,13 +9947,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
+      <xdr:colOff>319086</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -10075,554 +10026,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dashboard"/>
-      <sheetName val="annual rain"/>
-      <sheetName val="quarterly rain"/>
-      <sheetName val="monthly rain"/>
-      <sheetName val="pivot"/>
-      <sheetName val="processed data"/>
-      <sheetName val="raw data"/>
-      <sheetName val="codes"/>
-      <sheetName val="rain stations"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>rainfall (mm)</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>days of rain</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>1990</v>
-          </cell>
-          <cell r="B2">
-            <v>420.86000000000007</v>
-          </cell>
-          <cell r="C2">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>1991</v>
-          </cell>
-          <cell r="B3">
-            <v>922.82</v>
-          </cell>
-          <cell r="C3">
-            <v>81</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>1992</v>
-          </cell>
-          <cell r="B4">
-            <v>990.14000000000021</v>
-          </cell>
-          <cell r="C4">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>1993</v>
-          </cell>
-          <cell r="B5">
-            <v>396.88000000000022</v>
-          </cell>
-          <cell r="C5">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>1994</v>
-          </cell>
-          <cell r="B6">
-            <v>778.3599999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>89</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>1995</v>
-          </cell>
-          <cell r="B7">
-            <v>251.20500000000001</v>
-          </cell>
-          <cell r="C7">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>1996</v>
-          </cell>
-          <cell r="B8">
-            <v>407.08000000000004</v>
-          </cell>
-          <cell r="C8">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>1997</v>
-          </cell>
-          <cell r="B9">
-            <v>516.27499999999975</v>
-          </cell>
-          <cell r="C9">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>1998</v>
-          </cell>
-          <cell r="B10">
-            <v>267.60000000000002</v>
-          </cell>
-          <cell r="C10">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>1999</v>
-          </cell>
-          <cell r="B11">
-            <v>174.75000000000003</v>
-          </cell>
-          <cell r="C11">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>2000</v>
-          </cell>
-          <cell r="B12">
-            <v>402.88333333333321</v>
-          </cell>
-          <cell r="C12">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>2001</v>
-          </cell>
-          <cell r="B13">
-            <v>343.43333333333345</v>
-          </cell>
-          <cell r="C13">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>2002</v>
-          </cell>
-          <cell r="B14">
-            <v>418.33333333333331</v>
-          </cell>
-          <cell r="C14">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>2003</v>
-          </cell>
-          <cell r="B15">
-            <v>745.76666666666688</v>
-          </cell>
-          <cell r="C15">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>2004</v>
-          </cell>
-          <cell r="B16">
-            <v>419.81666666666678</v>
-          </cell>
-          <cell r="C16">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>2005</v>
-          </cell>
-          <cell r="B17">
-            <v>543.77500000000009</v>
-          </cell>
-          <cell r="C17">
-            <v>55</v>
-          </cell>
-          <cell r="F17" t="str">
-            <v>days of rain</v>
-          </cell>
-          <cell r="G17">
-            <v>62.071428571428569</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>2006</v>
-          </cell>
-          <cell r="B18">
-            <v>445.92499999999995</v>
-          </cell>
-          <cell r="C18">
-            <v>59</v>
-          </cell>
-          <cell r="F18" t="str">
-            <v>days without rain</v>
-          </cell>
-          <cell r="G18">
-            <v>303.17857142857144</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>2007</v>
-          </cell>
-          <cell r="B19">
-            <v>486.5</v>
-          </cell>
-          <cell r="C19">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>2008</v>
-          </cell>
-          <cell r="B20">
-            <v>354.85</v>
-          </cell>
-          <cell r="C20">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>2009</v>
-          </cell>
-          <cell r="B21">
-            <v>416.3250000000001</v>
-          </cell>
-          <cell r="C21">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>2010</v>
-          </cell>
-          <cell r="B22">
-            <v>447.1</v>
-          </cell>
-          <cell r="C22">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>2011</v>
-          </cell>
-          <cell r="B23">
-            <v>391.30000000000013</v>
-          </cell>
-          <cell r="C23">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>2012</v>
-          </cell>
-          <cell r="B24">
-            <v>608.75</v>
-          </cell>
-          <cell r="C24">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>2013</v>
-          </cell>
-          <cell r="B25">
-            <v>623.19999999999993</v>
-          </cell>
-          <cell r="C25">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>2014</v>
-          </cell>
-          <cell r="B26">
-            <v>397.2000000000001</v>
-          </cell>
-          <cell r="C26">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>2015</v>
-          </cell>
-          <cell r="B27">
-            <v>520.82499999999993</v>
-          </cell>
-          <cell r="C27">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>2016</v>
-          </cell>
-          <cell r="B28">
-            <v>345.6749999999999</v>
-          </cell>
-          <cell r="C28">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>2017</v>
-          </cell>
-          <cell r="B29">
-            <v>161.05000000000004</v>
-          </cell>
-          <cell r="C29">
-            <v>53</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>rainfall (mm)</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>days of rain</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Qtr1</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Qtr2</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Qtr3</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Qtr4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>292.59309523809515</v>
-          </cell>
-          <cell r="C31">
-            <v>24.181488095238102</v>
-          </cell>
-          <cell r="D31">
-            <v>0.70589285714285721</v>
-          </cell>
-          <cell r="E31">
-            <v>153.90089285714291</v>
-          </cell>
-          <cell r="F31">
-            <v>33.214285714285715</v>
-          </cell>
-          <cell r="G31">
-            <v>6.884615384615385</v>
-          </cell>
-          <cell r="H31">
-            <v>2</v>
-          </cell>
-          <cell r="I31">
-            <v>21.607142857142858</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>rainfall (mm)</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>days of rain</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec</v>
-          </cell>
-          <cell r="D2">
-            <v>100.83672839506174</v>
-          </cell>
-          <cell r="E2">
-            <v>10.62962962962963</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan</v>
-          </cell>
-          <cell r="D3">
-            <v>127.31228395061736</v>
-          </cell>
-          <cell r="E3">
-            <v>13.074074074074074</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb</v>
-          </cell>
-          <cell r="D4">
-            <v>113.59530864197529</v>
-          </cell>
-          <cell r="E4">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar</v>
-          </cell>
-          <cell r="D5">
-            <v>62.522283950617251</v>
-          </cell>
-          <cell r="E5">
-            <v>9.3703703703703702</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr</v>
-          </cell>
-          <cell r="D6">
-            <v>18.663888888888881</v>
-          </cell>
-          <cell r="E6">
-            <v>4.5925925925925926</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="D7">
-            <v>5.8783950617283942</v>
-          </cell>
-          <cell r="E7">
-            <v>1.962962962962963</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun</v>
-          </cell>
-          <cell r="D8">
-            <v>0.53481481481481496</v>
-          </cell>
-          <cell r="E8">
-            <v>7.407407407407407E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug</v>
-          </cell>
-          <cell r="D10">
-            <v>3.7037037037037035E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>0.18518518518518517</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep</v>
-          </cell>
-          <cell r="D11">
-            <v>0.69500000000000006</v>
-          </cell>
-          <cell r="E11">
-            <v>0.70370370370370372</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct</v>
-          </cell>
-          <cell r="D12">
-            <v>8.5475308641975332</v>
-          </cell>
-          <cell r="E12">
-            <v>4.4074074074074074</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov</v>
-          </cell>
-          <cell r="D13">
-            <v>50.216666666666647</v>
-          </cell>
-          <cell r="E13">
-            <v>7.3703703703703702</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10927,8 +10330,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:O32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11268,7 +10671,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B29" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11295,8 +10698,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
+      <c r="A2" s="22">
+        <v>1990</v>
       </c>
       <c r="B2" s="14">
         <v>420.86000000000007</v>
@@ -11310,8 +10713,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
+      <c r="A3" s="22">
+        <v>1991</v>
       </c>
       <c r="B3" s="14">
         <v>922.82</v>
@@ -11325,8 +10728,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
+      <c r="A4" s="22">
+        <v>1992</v>
       </c>
       <c r="B4" s="14">
         <v>990.14000000000021</v>
@@ -11340,8 +10743,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
+      <c r="A5" s="22">
+        <v>1993</v>
       </c>
       <c r="B5" s="14">
         <v>396.88000000000022</v>
@@ -11355,8 +10758,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
+      <c r="A6" s="22">
+        <v>1994</v>
       </c>
       <c r="B6" s="14">
         <v>778.3599999999999</v>
@@ -11370,8 +10773,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="A7" s="22">
+        <v>1995</v>
       </c>
       <c r="B7" s="14">
         <v>251.20500000000001</v>
@@ -11385,8 +10788,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
+      <c r="A8" s="22">
+        <v>1996</v>
       </c>
       <c r="B8" s="14">
         <v>407.08000000000004</v>
@@ -11400,8 +10803,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A9" s="22">
+        <v>1997</v>
       </c>
       <c r="B9" s="14">
         <v>516.27499999999975</v>
@@ -11415,8 +10818,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
+      <c r="A10" s="22">
+        <v>1998</v>
       </c>
       <c r="B10" s="14">
         <v>267.60000000000002</v>
@@ -11430,8 +10833,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
+      <c r="A11" s="22">
+        <v>1999</v>
       </c>
       <c r="B11" s="14">
         <v>174.75000000000003</v>
@@ -11445,8 +10848,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
+      <c r="A12" s="22">
+        <v>2000</v>
       </c>
       <c r="B12" s="14">
         <v>402.88333333333321</v>
@@ -11460,8 +10863,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
+      <c r="A13" s="22">
+        <v>2001</v>
       </c>
       <c r="B13" s="14">
         <v>343.43333333333345</v>
@@ -11475,8 +10878,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>43</v>
+      <c r="A14" s="22">
+        <v>2002</v>
       </c>
       <c r="B14" s="14">
         <v>418.33333333333331</v>
@@ -11490,8 +10893,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
+      <c r="A15" s="22">
+        <v>2003</v>
       </c>
       <c r="B15" s="14">
         <v>745.76666666666688</v>
@@ -11505,8 +10908,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
+      <c r="A16" s="22">
+        <v>2004</v>
       </c>
       <c r="B16" s="14">
         <v>419.81666666666678</v>
@@ -11520,8 +10923,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
+      <c r="A17" s="22">
+        <v>2005</v>
       </c>
       <c r="B17" s="14">
         <v>543.77500000000009</v>
@@ -11542,8 +10945,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="A18" s="22">
+        <v>2006</v>
       </c>
       <c r="B18" s="14">
         <v>445.92499999999995</v>
@@ -11564,8 +10967,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
+      <c r="A19" s="22">
+        <v>2007</v>
       </c>
       <c r="B19" s="14">
         <v>486.5</v>
@@ -11579,8 +10982,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
+      <c r="A20" s="22">
+        <v>2008</v>
       </c>
       <c r="B20" s="14">
         <v>354.85</v>
@@ -11594,8 +10997,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
+      <c r="A21" s="22">
+        <v>2009</v>
       </c>
       <c r="B21" s="14">
         <v>416.3250000000001</v>
@@ -11609,8 +11012,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
+      <c r="A22" s="22">
+        <v>2010</v>
       </c>
       <c r="B22" s="14">
         <v>447.1</v>
@@ -11624,8 +11027,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
+      <c r="A23" s="22">
+        <v>2011</v>
       </c>
       <c r="B23" s="14">
         <v>391.30000000000013</v>
@@ -11639,8 +11042,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
+      <c r="A24" s="22">
+        <v>2012</v>
       </c>
       <c r="B24" s="14">
         <v>608.75</v>
@@ -11654,8 +11057,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
+      <c r="A25" s="22">
+        <v>2013</v>
       </c>
       <c r="B25" s="14">
         <v>623.19999999999993</v>
@@ -11669,8 +11072,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
+      <c r="A26" s="22">
+        <v>2014</v>
       </c>
       <c r="B26" s="14">
         <v>397.2000000000001</v>
@@ -11684,8 +11087,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
+      <c r="A27" s="22">
+        <v>2015</v>
       </c>
       <c r="B27" s="14">
         <v>520.82499999999993</v>
@@ -11699,8 +11102,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
+      <c r="A28" s="22">
+        <v>2016</v>
       </c>
       <c r="B28" s="14">
         <v>345.6749999999999</v>
@@ -11714,8 +11117,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
+      <c r="A29" s="22">
+        <v>2017</v>
       </c>
       <c r="B29" s="14">
         <v>161.05000000000004</v>
@@ -11738,25 +11141,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE406D61-B81B-4BE7-81D3-E2227D8D06FC}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -11788,8 +11191,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
+      <c r="A3" s="22">
+        <v>1990</v>
       </c>
       <c r="B3" s="14">
         <v>348.92</v>
@@ -11814,8 +11217,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
+      <c r="A4" s="22">
+        <v>1991</v>
       </c>
       <c r="B4" s="14">
         <v>370.54000000000013</v>
@@ -11840,8 +11243,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
+      <c r="A5" s="22">
+        <v>1992</v>
       </c>
       <c r="B5" s="14">
         <v>618.86000000000013</v>
@@ -11866,8 +11269,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
+      <c r="A6" s="22">
+        <v>1993</v>
       </c>
       <c r="B6" s="14">
         <v>313.85999999999996</v>
@@ -11895,8 +11298,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="A7" s="22">
+        <v>1994</v>
       </c>
       <c r="B7" s="14">
         <v>349.41999999999996</v>
@@ -11921,8 +11324,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
+      <c r="A8" s="22">
+        <v>1995</v>
       </c>
       <c r="B8" s="14">
         <v>135.375</v>
@@ -11947,8 +11350,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9" s="22">
+        <v>1996</v>
       </c>
       <c r="B9" s="14">
         <v>310.37999999999994</v>
@@ -11973,8 +11376,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
+      <c r="A10" s="22">
+        <v>1997</v>
       </c>
       <c r="B10" s="14">
         <v>364.75999999999993</v>
@@ -12002,8 +11405,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
+      <c r="A11" s="22">
+        <v>1998</v>
       </c>
       <c r="B11" s="14">
         <v>239.2</v>
@@ -12028,8 +11431,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
+      <c r="A12" s="22">
+        <v>1999</v>
       </c>
       <c r="B12" s="14">
         <v>126.44999999999999</v>
@@ -12057,8 +11460,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
+      <c r="A13" s="22">
+        <v>2000</v>
       </c>
       <c r="B13" s="14">
         <v>292</v>
@@ -12086,8 +11489,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="A14" s="22">
+        <v>2001</v>
       </c>
       <c r="B14" s="14">
         <v>151.19999999999996</v>
@@ -12112,8 +11515,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
+      <c r="A15" s="22">
+        <v>2002</v>
       </c>
       <c r="B15" s="14">
         <v>230.10000000000002</v>
@@ -12138,8 +11541,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
+      <c r="A16" s="22">
+        <v>2003</v>
       </c>
       <c r="B16" s="14">
         <v>567.06666666666672</v>
@@ -12164,8 +11567,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
+      <c r="A17" s="22">
+        <v>2004</v>
       </c>
       <c r="B17" s="14">
         <v>248.7</v>
@@ -12190,8 +11593,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
+      <c r="A18" s="22">
+        <v>2005</v>
       </c>
       <c r="B18" s="14">
         <v>360.14999999999986</v>
@@ -12219,8 +11622,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
+      <c r="A19" s="22">
+        <v>2006</v>
       </c>
       <c r="B19" s="14">
         <v>156.25000000000003</v>
@@ -12245,8 +11648,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
+      <c r="A20" s="22">
+        <v>2007</v>
       </c>
       <c r="B20" s="14">
         <v>340.57499999999999</v>
@@ -12271,8 +11674,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
+      <c r="A21" s="22">
+        <v>2008</v>
       </c>
       <c r="B21" s="14">
         <v>268.89999999999998</v>
@@ -12297,8 +11700,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
+      <c r="A22" s="22">
+        <v>2009</v>
       </c>
       <c r="B22" s="14">
         <v>288.27500000000003</v>
@@ -12326,8 +11729,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
+      <c r="A23" s="22">
+        <v>2010</v>
       </c>
       <c r="B23" s="14">
         <v>363.37500000000006</v>
@@ -12355,8 +11758,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
+      <c r="A24" s="22">
+        <v>2011</v>
       </c>
       <c r="B24" s="14">
         <v>199.72499999999999</v>
@@ -12384,8 +11787,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
+      <c r="A25" s="22">
+        <v>2012</v>
       </c>
       <c r="B25" s="14">
         <v>456.80000000000007</v>
@@ -12410,8 +11813,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>20</v>
+      <c r="A26" s="22">
+        <v>2013</v>
       </c>
       <c r="B26" s="14">
         <v>326.62500000000006</v>
@@ -12439,8 +11842,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
+      <c r="A27" s="22">
+        <v>2014</v>
       </c>
       <c r="B27" s="14">
         <v>123.95</v>
@@ -12465,8 +11868,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
+      <c r="A28" s="22">
+        <v>2015</v>
       </c>
       <c r="B28" s="14">
         <v>325.65000000000009</v>
@@ -12491,8 +11894,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
+      <c r="A29" s="22">
+        <v>2016</v>
       </c>
       <c r="B29" s="14">
         <v>214.27499999999992</v>
@@ -12517,8 +11920,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
+      <c r="A30" s="22">
+        <v>2017</v>
       </c>
       <c r="B30" s="14">
         <v>101.22499999999999</v>
@@ -12546,38 +11949,38 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="21">
+      <c r="A31" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="20">
         <f>AVERAGE(B3:B30)</f>
         <v>292.59309523809515</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <f t="shared" ref="C31:E31" si="0">AVERAGE(C3:C30)</f>
         <v>24.181488095238102</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <f t="shared" si="0"/>
         <v>0.70589285714285721</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>153.90089285714291</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <f>AVERAGE(F3:F30)</f>
         <v>33.214285714285715</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <f t="shared" ref="G31:I31" si="1">AVERAGE(G3:G30)</f>
         <v>6.884615384615385</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <f t="shared" si="1"/>
         <v>21.607142857142858</v>
       </c>
@@ -12586,89 +11989,89 @@
       <c r="A33" t="s">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" t="s">
-        <v>40</v>
-      </c>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" t="s">
-        <v>43</v>
-      </c>
-      <c r="O33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>46</v>
-      </c>
-      <c r="R33" t="s">
-        <v>13</v>
-      </c>
-      <c r="S33" t="s">
-        <v>14</v>
-      </c>
-      <c r="T33" t="s">
-        <v>15</v>
-      </c>
-      <c r="U33" t="s">
-        <v>16</v>
-      </c>
-      <c r="V33" t="s">
-        <v>17</v>
-      </c>
-      <c r="W33" t="s">
-        <v>18</v>
-      </c>
-      <c r="X33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>26</v>
+      <c r="B33" s="22">
+        <v>1990</v>
+      </c>
+      <c r="C33" s="22">
+        <v>1991</v>
+      </c>
+      <c r="D33" s="22">
+        <v>1992</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1993</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1994</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1995</v>
+      </c>
+      <c r="H33" s="22">
+        <v>1996</v>
+      </c>
+      <c r="I33" s="22">
+        <v>1997</v>
+      </c>
+      <c r="J33" s="22">
+        <v>1998</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1999</v>
+      </c>
+      <c r="L33" s="22">
+        <v>2000</v>
+      </c>
+      <c r="M33" s="22">
+        <v>2001</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2002</v>
+      </c>
+      <c r="O33" s="22">
+        <v>2003</v>
+      </c>
+      <c r="P33" s="22">
+        <v>2004</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>2005</v>
+      </c>
+      <c r="R33" s="22">
+        <v>2006</v>
+      </c>
+      <c r="S33" s="22">
+        <v>2007</v>
+      </c>
+      <c r="T33" s="22">
+        <v>2008</v>
+      </c>
+      <c r="U33" s="22">
+        <v>2009</v>
+      </c>
+      <c r="V33" s="22">
+        <v>2010</v>
+      </c>
+      <c r="W33" s="22">
+        <v>2011</v>
+      </c>
+      <c r="X33" s="22">
+        <v>2012</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>2013</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>2014</v>
+      </c>
+      <c r="AA33" s="22">
+        <v>2015</v>
+      </c>
+      <c r="AB33" s="22">
+        <v>2016</v>
+      </c>
+      <c r="AC33" s="22">
+        <v>2017</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -13042,7 +12445,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13055,13 +12458,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -13071,146 +12474,146 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
+      <c r="A2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="14">
         <v>2722.5916666666672</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>287</v>
       </c>
       <c r="D2" s="14">
-        <f>B2/27</f>
-        <v>100.83672839506174</v>
+        <f>B2/29</f>
+        <v>93.882471264367837</v>
       </c>
       <c r="E2" s="14">
-        <f>C2/27</f>
-        <v>10.62962962962963</v>
+        <f>C2/29</f>
+        <v>9.8965517241379306</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>52</v>
+      <c r="A3" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="14">
         <v>3437.4316666666687</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>353</v>
       </c>
       <c r="D3" s="14">
-        <f t="shared" ref="D3:E13" si="0">B3/27</f>
-        <v>127.31228395061736</v>
+        <f t="shared" ref="D3:D13" si="0">B3/29</f>
+        <v>118.53212643678168</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" si="0"/>
-        <v>13.074074074074074</v>
+        <f t="shared" ref="E3:E13" si="1">C3/29</f>
+        <v>12.172413793103448</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>53</v>
+      <c r="A4" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="14">
         <v>3067.0733333333328</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>324</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>113.59530864197529</v>
+        <v>105.76114942528734</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>11.172413793103448</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>54</v>
+      <c r="A5" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="14">
         <v>1688.1016666666658</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>253</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>62.522283950617251</v>
+        <v>58.210402298850546</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="0"/>
-        <v>9.3703703703703702</v>
+        <f t="shared" si="1"/>
+        <v>8.7241379310344822</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>55</v>
+      <c r="A6" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="14">
         <v>503.92499999999978</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>124</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>18.663888888888881</v>
+        <v>17.376724137931028</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="0"/>
-        <v>4.5925925925925926</v>
+        <f t="shared" si="1"/>
+        <v>4.2758620689655169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>56</v>
+      <c r="A7" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="14">
         <v>158.71666666666664</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>53</v>
       </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>5.8783950617283942</v>
+        <v>5.4729885057471259</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.962962962962963</v>
+        <f t="shared" si="1"/>
+        <v>1.8275862068965518</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>57</v>
+      <c r="A8" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="14">
         <v>14.440000000000003</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>2</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>0.53481481481481496</v>
+        <v>0.49793103448275872</v>
       </c>
       <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8965517241379309E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>58</v>
+      <c r="A9" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>0</v>
       </c>
       <c r="D9" s="14">
@@ -13218,13 +12621,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>59</v>
+      <c r="A10" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="14">
         <v>1</v>
@@ -13234,68 +12637,68 @@
       </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.18518518518518517</v>
+        <f t="shared" si="1"/>
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>60</v>
+      <c r="A11" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="14">
         <v>18.765000000000001</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>19</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>0.69500000000000006</v>
+        <v>0.64706896551724136</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.70370370370370372</v>
+        <f t="shared" si="1"/>
+        <v>0.65517241379310343</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>61</v>
+      <c r="A12" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="14">
         <v>230.78333333333342</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>119</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>8.5475308641975332</v>
+        <v>7.9580459770114969</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" si="0"/>
-        <v>4.4074074074074074</v>
+        <f t="shared" si="1"/>
+        <v>4.1034482758620694</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>62</v>
+      <c r="A13" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B13" s="14">
         <v>1355.8499999999995</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>199</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>50.216666666666647</v>
+        <v>46.753448275862048</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="0"/>
-        <v>7.3703703703703702</v>
+        <f t="shared" si="1"/>
+        <v>6.8620689655172411</v>
       </c>
     </row>
   </sheetData>
